--- a/excel/CongboTructiep-2307.xlsx
+++ b/excel/CongboTructiep-2307.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HoangQuan\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35303A19-83AE-40A4-86E7-D5DC8F32D2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="10550"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,19 +18,26 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$56</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="418">
   <si>
     <t>sv_id</t>
   </si>
   <si>
-    <t>MATRUNGTUYEN</t>
-  </si>
-  <si>
     <t>sv_name</t>
   </si>
   <si>
@@ -67,9 +80,6 @@
     <t>Nội dung tin nhắn</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>TrT720</t>
   </si>
   <si>
@@ -103,9 +113,6 @@
     <t>Chuc mung e KHANH trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . Xac nhan HOTEN_MASO trung tuyen vao Group OR so 0977334400 - 0933734474 - 02838911111 .Lam HOSO nhap hoc truoc 2/8 duoc giam 10% HP. Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>TrT721</t>
   </si>
   <si>
@@ -130,9 +137,6 @@
     <t>Chuc mung e TRUC trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . Xac nhan HOTEN_MASO trung tuyen vao Group OR so 0977334400 - 0933734474 - 02838911111 .Lam HOSO nhap hoc truoc 2/8 duoc giam 10% HP. Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>TrT722</t>
   </si>
   <si>
@@ -160,9 +164,6 @@
     <t>Chuc mung e MINH trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . Xac nhan HOTEN_MASO trung tuyen vao Group OR so 0977334400 - 0933734474 - 02838911111 .Lam HOSO nhap hoc truoc 2/8 duoc giam 10% HP. Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>TrT723</t>
   </si>
   <si>
@@ -187,9 +188,6 @@
     <t>Chuc mung e MO trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . Xac nhan HOTEN_MASO trung tuyen vao Group OR so 0977334400 - 0933734474 - 02838911111 .Lam HOSO nhap hoc truoc 2/8 duoc giam 10% HP. Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>TrT724</t>
   </si>
   <si>
@@ -217,9 +215,6 @@
     <t>Chuc mung e NAM trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . Xac nhan HOTEN_MASO trung tuyen vao Group OR so 0977334400 - 0933734474 - 02838911111 .Lam HOSO nhap hoc truoc 2/8 duoc giam 10% HP. Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>TrT725</t>
   </si>
   <si>
@@ -241,9 +236,6 @@
     <t>Chuc mung e DAT trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . Xac nhan HOTEN_MASO trung tuyen vao Group OR so 0977334400 - 0933734474 - 02838911111 .Lam HOSO nhap hoc truoc 2/8 duoc giam 10% HP. Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>TrT727</t>
   </si>
   <si>
@@ -268,9 +260,6 @@
     <t>Chuc mung e KHOI trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . Xac nhan HOTEN_MASO trung tuyen vao Group OR so 0977334400 - 0933734474 - 02838911111 .Lam HOSO nhap hoc truoc 2/8 duoc giam 10% HP. Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>TrT728</t>
   </si>
   <si>
@@ -289,9 +278,6 @@
     <t>84762015162</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>TrT729</t>
   </si>
   <si>
@@ -319,9 +305,6 @@
     <t>Chuc mung e DUONG trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . Xac nhan HOTEN_MASO trung tuyen vao Group OR so 0977334400 - 0933734474 - 02838911111 .Lam HOSO nhap hoc truoc 2/8 duoc giam 10% HP. Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>TrT730</t>
   </si>
   <si>
@@ -346,9 +329,6 @@
     <t>Chuc mung e PHUONG trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . Xac nhan HOTEN_MASO trung tuyen vao Group OR so 0977334400 - 0933734474 - 02838911111 .Lam HOSO nhap hoc truoc 2/8 duoc giam 10% HP. Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>TrT731</t>
   </si>
   <si>
@@ -373,9 +353,6 @@
     <t>Chuc mung e HOANG trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . Xac nhan HOTEN_MASO trung tuyen vao Group OR so 0977334400 - 0933734474 - 02838911111 .Lam HOSO nhap hoc truoc 2/8 duoc giam 10% HP. Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>TrT732</t>
   </si>
   <si>
@@ -400,9 +377,6 @@
     <t>Chuc mung e TRUNG trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . Xac nhan HOTEN_MASO trung tuyen vao Group OR so 0977334400 - 0933734474 - 02838911111 .Lam HOSO nhap hoc truoc 2/8 duoc giam 10% HP. Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>TrT733</t>
   </si>
   <si>
@@ -427,9 +401,6 @@
     <t>Chuc mung e KIM trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . Xac nhan HOTEN_MASO trung tuyen vao Group OR so 0977334400 - 0933734474 - 02838911111 .Lam HOSO nhap hoc truoc 2/8 duoc giam 10% HP. Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>TrT734</t>
   </si>
   <si>
@@ -445,9 +416,6 @@
     <t>84949797054</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>TrT735</t>
   </si>
   <si>
@@ -490,9 +458,6 @@
     <t>Chuc mung e CAM trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . Xac nhan HOTEN_MASO trung tuyen vao Group OR so 0977334400 - 0933734474 - 02838911111 .Lam HOSO nhap hoc truoc 2/8 duoc giam 10% HP. Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>TrT737</t>
   </si>
   <si>
@@ -514,9 +479,6 @@
     <t>Chuc mung e NGOC trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . Xac nhan HOTEN_MASO trung tuyen vao Group OR so 0977334400 - 0933734474 - 02838911111 .Lam HOSO nhap hoc truoc 2/8 duoc giam 10% HP. Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>TrT738</t>
   </si>
   <si>
@@ -538,9 +500,6 @@
     <t>Chuc mung e DIEM trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . Xac nhan HOTEN_MASO trung tuyen vao Group OR so 0977334400 - 0933734474 - 02838911111 .Lam HOSO nhap hoc truoc 2/8 duoc giam 10% HP. Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>TrT739</t>
   </si>
   <si>
@@ -562,9 +521,6 @@
     <t>Chuc mung e THANH trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . Xac nhan HOTEN_MASO trung tuyen vao Group OR so 0977334400 - 0933734474 - 02838911111 .Lam HOSO nhap hoc truoc 2/8 duoc giam 10% HP. Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>TrT740</t>
   </si>
   <si>
@@ -589,9 +545,6 @@
     <t>Chuc mung e BICH trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . Xac nhan HOTEN_MASO trung tuyen vao Group OR so 0977334400 - 0933734474 - 02838911111 .Lam HOSO nhap hoc truoc 2/8 duoc giam 10% HP. Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>TrT744</t>
   </si>
   <si>
@@ -619,9 +572,6 @@
     <t>Chuc mung e DUY trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . Xac nhan HOTEN_MASO trung tuyen vao Group OR so 0977334400 - 0933734474 - 02838911111 .Lam HOSO nhap hoc truoc 2/8 duoc giam 10% HP. Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>TrT745</t>
   </si>
   <si>
@@ -640,9 +590,6 @@
     <t>84363365076</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>TrT746</t>
   </si>
   <si>
@@ -661,9 +608,6 @@
     <t>84964572559</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>TrT747</t>
   </si>
   <si>
@@ -682,9 +626,6 @@
     <t>84383254374</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>TrT748</t>
   </si>
   <si>
@@ -706,9 +647,6 @@
     <t>84344442207</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>TrT749</t>
   </si>
   <si>
@@ -724,9 +662,6 @@
     <t>Chuc mung e MY trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . Xac nhan HOTEN_MASO trung tuyen vao Group OR so 0977334400 - 0933734474 - 02838911111 .Lam HOSO nhap hoc truoc 2/8 duoc giam 10% HP. Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>TrT750</t>
   </si>
   <si>
@@ -751,9 +686,6 @@
     <t>Chuc mung e QUYNH trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . Xac nhan HOTEN_MASO trung tuyen vao Group OR so 0977334400 - 0933734474 - 02838911111 .Lam HOSO nhap hoc truoc 2/8 duoc giam 10% HP. Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
     <t>TrT751</t>
   </si>
   <si>
@@ -775,9 +707,6 @@
     <t>Chuc mung e NHU trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . Xac nhan HOTEN_MASO trung tuyen vao Group OR so 0977334400 - 0933734474 - 02838911111 .Lam HOSO nhap hoc truoc 2/8 duoc giam 10% HP. Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
     <t>TrT752</t>
   </si>
   <si>
@@ -799,9 +728,6 @@
     <t>Chuc mung e TRAM trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . Xac nhan HOTEN_MASO trung tuyen vao Group OR so 0977334400 - 0933734474 - 02838911111 .Lam HOSO nhap hoc truoc 2/8 duoc giam 10% HP. Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>TrT753</t>
   </si>
   <si>
@@ -823,9 +749,6 @@
     <t>84944058683</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>TrT754</t>
   </si>
   <si>
@@ -847,9 +770,6 @@
     <t>84349144954</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>TrT755</t>
   </si>
   <si>
@@ -865,9 +785,6 @@
     <t>Chuc mung e HONG trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . Xac nhan HOTEN_MASO trung tuyen vao Group OR so 0977334400 - 0933734474 - 02838911111 .Lam HOSO nhap hoc truoc 2/8 duoc giam 10% HP. Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>TrT756</t>
   </si>
   <si>
@@ -886,9 +803,6 @@
     <t>84376109041</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
     <t>TrT757</t>
   </si>
   <si>
@@ -907,9 +821,6 @@
     <t>84989741311</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>TrT758</t>
   </si>
   <si>
@@ -937,9 +848,6 @@
     <t>Chuc mung e Y trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . Xac nhan HOTEN_MASO trung tuyen vao Group OR so 0977334400 - 0933734474 - 02838911111 .Lam HOSO nhap hoc truoc 2/8 duoc giam 10% HP. Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
     <t>TrT759</t>
   </si>
   <si>
@@ -964,9 +872,6 @@
     <t>Chuc mung e THUY trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . Xac nhan HOTEN_MASO trung tuyen vao Group OR so 0977334400 - 0933734474 - 02838911111 .Lam HOSO nhap hoc truoc 2/8 duoc giam 10% HP. Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
     <t>TrT760</t>
   </si>
   <si>
@@ -991,9 +896,6 @@
     <t>Chuc mung e GIA trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . Xac nhan HOTEN_MASO trung tuyen vao Group OR so 0977334400 - 0933734474 - 02838911111 .Lam HOSO nhap hoc truoc 2/8 duoc giam 10% HP. Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
     <t>TrT761</t>
   </si>
   <si>
@@ -1018,9 +920,6 @@
     <t>Chuc mung e NGUYEN trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . Xac nhan HOTEN_MASO trung tuyen vao Group OR so 0977334400 - 0933734474 - 02838911111 .Lam HOSO nhap hoc truoc 2/8 duoc giam 10% HP. Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>TrT762</t>
   </si>
   <si>
@@ -1045,9 +944,6 @@
     <t>Chuc mung e HUNG trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . Xac nhan HOTEN_MASO trung tuyen vao Group OR so 0977334400 - 0933734474 - 02838911111 .Lam HOSO nhap hoc truoc 2/8 duoc giam 10% HP. Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>TrT763</t>
   </si>
   <si>
@@ -1063,9 +959,6 @@
     <t>84384138176</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
     <t>TrT764</t>
   </si>
   <si>
@@ -1084,9 +977,6 @@
     <t>84374821656</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>2202022007</t>
   </si>
   <si>
@@ -1120,9 +1010,6 @@
     <t>Chuc mung e TUAN trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . MSSV cua em la:2202022007. Nhap hoc dot 2 co mat o truong luc 8h00 ngay 25/7; dot 3 la ngay 5/8, dong HP som duoc giam 10%. LH 0977334400 - 02838911111 .Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
     <t>2202022008</t>
   </si>
   <si>
@@ -1141,9 +1028,6 @@
     <t>Chuc mung e DUY trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . MSSV cua em la:2202022008. Nhap hoc dot 2 co mat o truong luc 8h00 ngay 25/7; dot 3 la ngay 5/8, dong HP som duoc giam 10%. LH 0977334400 - 02838911111 .Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
     <t>2204022004</t>
   </si>
   <si>
@@ -1165,9 +1049,6 @@
     <t>Chuc mung e GIA trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . MSSV cua em la:2204022004. Nhap hoc dot 2 co mat o truong luc 8h00 ngay 25/7; dot 3 la ngay 5/8, dong HP som duoc giam 10%. LH 0977334400 - 02838911111 .Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
     <t>2204022014</t>
   </si>
   <si>
@@ -1186,9 +1067,6 @@
     <t>Chuc mung e PHUONG trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . MSSV cua em la:2204022014. Nhap hoc dot 2 co mat o truong luc 8h00 ngay 25/7;dot 3 la ngay 5/8, dong HP som duoc giam 10%. LH 0977334400 - 02838911111 .Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>46</t>
-  </si>
-  <si>
     <t>2206022006</t>
   </si>
   <si>
@@ -1213,9 +1091,6 @@
     <t>Chuc mung e TUYET trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . MSSV cua em la:2206022006. Nhap hoc dot 2 co mat o truong luc 8h00 ngay 25/7; dot 3 la ngay 5/8, dong HP som duoc giam 10%. LH 0977334400 - 02838911111 .Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>47</t>
-  </si>
-  <si>
     <t>2207022002</t>
   </si>
   <si>
@@ -1237,9 +1112,6 @@
     <t>Chuc mung e ANH trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . MSSV cua em la:2207022002. Nhap hoc dot 2 co mat o truong luc 8h00 ngay 25/7; dot 3 la ngay 5/8, dong HP som duoc giam 10%. LH 0977334400 - 02838911111 .Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>48</t>
-  </si>
-  <si>
     <t>2208022002</t>
   </si>
   <si>
@@ -1264,9 +1136,6 @@
     <t>Chuc mung e HONG trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . MSSV cua em la:2208022002. Nhap hoc dot 2 co mat o truong luc 8h00 ngay 25/7; dot 3 la ngay 5/8, dong HP som duoc giam 10%. LH 0977334400 - 02838911111 .Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>49</t>
-  </si>
-  <si>
     <t>2209022029</t>
   </si>
   <si>
@@ -1288,9 +1157,6 @@
     <t>Chuc mung e QUOC trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . MSSV cua em la:2209022029. Nhap hoc dot 2 co mat o truong luc 8h00 ngay 25/7; dot 3 la ngay 5/8, dong HP som duoc giam 10%. LH 0977334400 - 02838911111 .Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>2212022004</t>
   </si>
   <si>
@@ -1309,9 +1175,6 @@
     <t>Chuc mung e DUC trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . MSSV cua em la:2212022004. Nhap hoc dot 2 co mat o truong luc 8h00 ngay 25/7; dot 3 la ngay 5/8, dong HP som duoc giam 10%. LH 0977334400 - 02838911111 .Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
     <t>2215022001</t>
   </si>
   <si>
@@ -1336,9 +1199,6 @@
     <t>Chuc mung e KIM trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . MSSV cua em la:2215022001. Nhap hoc dot 2 co mat o truong luc 8h00 ngay 25/7; dot 3 la ngay 5/8, dong HP som duoc giam 10%. LH 0977334400 - 02838911111 .Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>52</t>
-  </si>
-  <si>
     <t>2216022010</t>
   </si>
   <si>
@@ -1363,9 +1223,6 @@
     <t>Chuc mung e THAI trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . MSSV cua em la:2216022010. Nhap hoc dot 2 co mat o truong luc 8h00 ngay 25/7; dot 3 la ngay 5/8, dong HP som duoc giam 10%. LH 0977334400 - 02838911111 .Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>53</t>
-  </si>
-  <si>
     <t>2216022011</t>
   </si>
   <si>
@@ -1384,9 +1241,6 @@
     <t>Chuc mung e BE trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . MSSV cua em la:2216022011. Nhap hoc dot 2 co mat o truong luc 8h00 ngay 25/7; dot 3 la ngay 5/8, dong HP som duoc giam 10%. LH 0977334400 - 02838911111 .Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>54</t>
-  </si>
-  <si>
     <t>TrT765</t>
   </si>
   <si>
@@ -1408,9 +1262,6 @@
     <t>Chuc mung e BAO trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . Xac nhan HOTEN_MASO trung tuyen vao Group OR so 0977334400 - 0933734474 - 02838911111 .Lam HOSO nhap hoc truoc 2/8 duoc giam 10% HP. Xem KQua http://dangky.viendong.edu.vn/</t>
   </si>
   <si>
-    <t>55</t>
-  </si>
-  <si>
     <t>TrT766</t>
   </si>
   <si>
@@ -1433,23 +1284,20 @@
   </si>
   <si>
     <t>Chuc mung e THUONG trung tuyen CD Vien Dong.E tham gia Group de nhan TB cua trg: https://s.vido.edu.vn/DH-CD2022 . Xac nhan HOTEN_MASO trung tuyen vao Group OR so 0977334400 - 0933734474 - 02838911111 .Lam HOSO nhap hoc truoc 2/8 duoc giam 10% HP. Xem KQua http://dangky.viendong.edu.vn/</t>
+  </si>
+  <si>
+    <t>STT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1471,152 +1319,8 @@
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1629,194 +1333,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1867,253 +1385,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2160,62 +1436,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2473,91 +1711,91 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.78181818181818" style="1"/>
-    <col min="2" max="2" width="21.1090909090909" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.5545454545455" style="3" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="17"/>
+    <col min="2" max="2" width="21.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="26" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.7818181818182" style="3" customWidth="1"/>
-    <col min="6" max="6" width="6.89090909090909" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="6.875" style="3" customWidth="1"/>
     <col min="7" max="7" width="7" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.78181818181818" style="3" customWidth="1"/>
-    <col min="9" max="9" width="23.4454545454545" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.4454545454545" style="3" customWidth="1"/>
-    <col min="11" max="11" width="27.7818181818182" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="27.75" style="3" customWidth="1"/>
     <col min="12" max="12" width="16" style="3" customWidth="1"/>
-    <col min="13" max="13" width="24.2181818181818" style="3" customWidth="1"/>
-    <col min="14" max="14" width="49.8909090909091" style="3" customWidth="1"/>
-    <col min="15" max="15" width="16.3363636363636" style="3" customWidth="1"/>
-    <col min="16" max="16" width="9.21818181818182" style="3" customWidth="1"/>
-    <col min="17" max="17" width="13.5545454545455" style="3" customWidth="1"/>
-    <col min="18" max="18" width="57.8909090909091" style="3" customWidth="1"/>
-    <col min="19" max="16384" width="8.78181818181818" style="3"/>
+    <col min="13" max="13" width="24.25" style="3" customWidth="1"/>
+    <col min="14" max="14" width="49.875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="9.25" style="3" customWidth="1"/>
+    <col min="17" max="17" width="13.5" style="3" customWidth="1"/>
+    <col min="18" max="18" width="57.875" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.75" spans="1:23">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:23">
+      <c r="A1" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="P1" s="10"/>
       <c r="Q1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="14" t="s">
         <v>14</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>15</v>
       </c>
       <c r="S1" s="14"/>
       <c r="T1" s="14"/>
@@ -2565,18 +1803,18 @@
       <c r="V1" s="14"/>
       <c r="W1" s="14"/>
     </row>
-    <row r="2" ht="93.75" spans="1:23">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:23" ht="78.75">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="E2" s="6">
         <v>212888919</v>
@@ -2591,32 +1829,32 @@
         <v>2004</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="L2" s="6">
         <v>937556264</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O2" s="6"/>
       <c r="P2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="15" t="s">
         <v>25</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>27</v>
       </c>
       <c r="S2" s="14">
         <f>LEN(R2)</f>
@@ -2627,18 +1865,19 @@
       <c r="V2" s="14"/>
       <c r="W2" s="14"/>
     </row>
-    <row r="3" ht="93.75" spans="1:23">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:23" ht="78.75">
+      <c r="A3" s="16">
+        <f>SUM(A2+1)</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="E3" s="6">
         <v>38303000374</v>
@@ -2653,30 +1892,30 @@
         <v>2003</v>
       </c>
       <c r="I3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="L3" s="6">
         <v>363372130</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O3" s="6"/>
       <c r="P3" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="S3" s="14">
         <f t="shared" ref="S3:S56" si="0">LEN(R3)</f>
@@ -2687,18 +1926,19 @@
       <c r="V3" s="14"/>
       <c r="W3" s="14"/>
     </row>
-    <row r="4" ht="93.75" spans="1:23">
-      <c r="A4" s="4" t="s">
-        <v>37</v>
+    <row r="4" spans="1:23" ht="78.75">
+      <c r="A4" s="16">
+        <f t="shared" ref="A4:A56" si="1">SUM(A3+1)</f>
+        <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E4" s="6">
         <v>79204027347</v>
@@ -2713,32 +1953,32 @@
         <v>2004</v>
       </c>
       <c r="I4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="L4" s="6">
         <v>908402934</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="O4" s="6"/>
       <c r="P4" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R4" s="15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="S4" s="14">
         <f t="shared" si="0"/>
@@ -2749,18 +1989,19 @@
       <c r="V4" s="14"/>
       <c r="W4" s="14"/>
     </row>
-    <row r="5" ht="78.25" spans="1:23">
-      <c r="A5" s="4" t="s">
-        <v>47</v>
+    <row r="5" spans="1:23" ht="78.75">
+      <c r="A5" s="16">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E5" s="6">
         <v>215602133</v>
@@ -2775,30 +2016,30 @@
         <v>2002</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L5" s="6">
         <v>353257253</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="R5" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="S5" s="14">
         <f t="shared" si="0"/>
@@ -2809,18 +2050,19 @@
       <c r="V5" s="14"/>
       <c r="W5" s="14"/>
     </row>
-    <row r="6" ht="78.25" spans="1:23">
-      <c r="A6" s="4" t="s">
-        <v>56</v>
+    <row r="6" spans="1:23" ht="78.75">
+      <c r="A6" s="16">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E6" s="6">
         <v>7923036049</v>
@@ -2835,32 +2077,32 @@
         <v>2003</v>
       </c>
       <c r="I6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="L6" s="6">
         <v>395107257</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="S6" s="14">
         <f t="shared" si="0"/>
@@ -2871,18 +2113,19 @@
       <c r="V6" s="14"/>
       <c r="W6" s="14"/>
     </row>
-    <row r="7" ht="78.25" spans="1:23">
-      <c r="A7" s="4" t="s">
-        <v>66</v>
+    <row r="7" spans="1:23" ht="78.75">
+      <c r="A7" s="16">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="5">
@@ -2895,7 +2138,7 @@
         <v>2004</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -2904,17 +2147,17 @@
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="10" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="R7" s="15" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="S7" s="14">
         <f t="shared" si="0"/>
@@ -2925,18 +2168,19 @@
       <c r="V7" s="14"/>
       <c r="W7" s="14"/>
     </row>
-    <row r="8" ht="93.75" spans="1:23">
-      <c r="A8" s="4" t="s">
-        <v>74</v>
+    <row r="8" spans="1:23" ht="78.75">
+      <c r="A8" s="16">
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E8" s="6">
         <v>49203000154</v>
@@ -2951,30 +2195,30 @@
         <v>2003</v>
       </c>
       <c r="I8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="L8" s="6">
         <v>907405612</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="10" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="R8" s="15" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="S8" s="14">
         <f t="shared" si="0"/>
@@ -2985,18 +2229,19 @@
       <c r="V8" s="14"/>
       <c r="W8" s="14"/>
     </row>
-    <row r="9" ht="78.25" spans="1:23">
-      <c r="A9" s="4" t="s">
-        <v>83</v>
+    <row r="9" spans="1:23" ht="78.75">
+      <c r="A9" s="16">
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E9" s="6">
         <v>79204015761</v>
@@ -3011,32 +2256,32 @@
         <v>2004</v>
       </c>
       <c r="I9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="L9" s="6">
         <v>762015162</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="10" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="R9" s="15" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="S9" s="14">
         <f t="shared" si="0"/>
@@ -3047,18 +2292,19 @@
       <c r="V9" s="14"/>
       <c r="W9" s="14"/>
     </row>
-    <row r="10" ht="93.75" spans="1:23">
-      <c r="A10" s="4" t="s">
-        <v>90</v>
+    <row r="10" spans="1:23" ht="78.75">
+      <c r="A10" s="16">
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E10" s="6">
         <v>79204007247</v>
@@ -3073,32 +2319,32 @@
         <v>2004</v>
       </c>
       <c r="I10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="L10" s="6">
         <v>835383968</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="10" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="R10" s="15" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="S10" s="14">
         <f t="shared" si="0"/>
@@ -3109,18 +2355,19 @@
       <c r="V10" s="14"/>
       <c r="W10" s="14"/>
     </row>
-    <row r="11" ht="93.75" spans="1:23">
-      <c r="A11" s="4" t="s">
-        <v>100</v>
+    <row r="11" spans="1:23" ht="78.75">
+      <c r="A11" s="16">
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E11" s="6">
         <v>79301011222</v>
@@ -3135,32 +2382,32 @@
         <v>2001</v>
       </c>
       <c r="I11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="L11" s="6">
         <v>903055494</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="10" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="R11" s="15" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="S11" s="14">
         <f t="shared" si="0"/>
@@ -3171,18 +2418,19 @@
       <c r="V11" s="14"/>
       <c r="W11" s="14"/>
     </row>
-    <row r="12" ht="93.75" spans="1:23">
-      <c r="A12" s="4" t="s">
-        <v>109</v>
+    <row r="12" spans="1:23" ht="78.75">
+      <c r="A12" s="16">
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E12" s="6">
         <v>60202000145</v>
@@ -3197,30 +2445,30 @@
         <v>2002</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L12" s="6">
         <v>773891468</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="R12" s="15" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="S12" s="14">
         <f t="shared" si="0"/>
@@ -3231,18 +2479,19 @@
       <c r="V12" s="14"/>
       <c r="W12" s="14"/>
     </row>
-    <row r="13" ht="93.75" spans="1:23">
-      <c r="A13" s="4" t="s">
-        <v>118</v>
+    <row r="13" spans="1:23" ht="78.75">
+      <c r="A13" s="16">
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E13" s="6">
         <v>74201000056</v>
@@ -3257,32 +2506,32 @@
         <v>2001</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L13" s="6">
         <v>336438639</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="O13" s="6"/>
       <c r="P13" s="10" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="Q13" s="14" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="R13" s="15" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="S13" s="14">
         <f t="shared" si="0"/>
@@ -3293,46 +2542,47 @@
       <c r="V13" s="14"/>
       <c r="W13" s="14"/>
     </row>
-    <row r="14" ht="78.25" spans="1:23">
-      <c r="A14" s="4" t="s">
-        <v>127</v>
+    <row r="14" spans="1:23" ht="78.75">
+      <c r="A14" s="16">
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="10" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="Q14" s="14" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="R14" s="15" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="S14" s="14">
         <f t="shared" si="0"/>
@@ -3343,21 +2593,22 @@
       <c r="V14" s="14"/>
       <c r="W14" s="14"/>
     </row>
-    <row r="15" ht="93.75" spans="1:23">
-      <c r="A15" s="4" t="s">
-        <v>136</v>
+    <row r="15" spans="1:23" ht="78.75">
+      <c r="A15" s="16">
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="F15" s="5">
         <v>23</v>
@@ -3369,13 +2620,13 @@
         <v>2001</v>
       </c>
       <c r="I15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="L15" s="6">
         <v>949797054</v>
@@ -3384,13 +2635,13 @@
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="14" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="R15" s="15" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="S15" s="14">
         <f t="shared" si="0"/>
@@ -3401,21 +2652,22 @@
       <c r="V15" s="14"/>
       <c r="W15" s="14"/>
     </row>
-    <row r="16" ht="78.25" spans="1:23">
-      <c r="A16" s="4" t="s">
-        <v>142</v>
+    <row r="16" spans="1:23" ht="78.75">
+      <c r="A16" s="16">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="F16" s="5">
         <v>20</v>
@@ -3427,28 +2679,28 @@
         <v>2004</v>
       </c>
       <c r="I16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="O16" s="6"/>
       <c r="P16" s="10" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="Q16" s="14" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="R16" s="15" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="S16" s="14">
         <f t="shared" si="0"/>
@@ -3459,21 +2711,22 @@
       <c r="V16" s="14"/>
       <c r="W16" s="14"/>
     </row>
-    <row r="17" ht="78.25" spans="1:23">
-      <c r="A17" s="4" t="s">
-        <v>148</v>
+    <row r="17" spans="1:23" ht="78.75">
+      <c r="A17" s="16">
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="F17" s="5">
         <v>12</v>
@@ -3485,30 +2738,30 @@
         <v>2004</v>
       </c>
       <c r="I17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="L17" s="6">
         <v>906904119</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="O17" s="6"/>
       <c r="P17" s="10" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="Q17" s="14" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="R17" s="15" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="S17" s="14">
         <f t="shared" si="0"/>
@@ -3519,21 +2772,22 @@
       <c r="V17" s="14"/>
       <c r="W17" s="14"/>
     </row>
-    <row r="18" ht="93.75" spans="1:23">
-      <c r="A18" s="4" t="s">
-        <v>157</v>
+    <row r="18" spans="1:23" ht="78.75">
+      <c r="A18" s="16">
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="F18" s="5">
         <v>4</v>
@@ -3545,13 +2799,13 @@
         <v>2004</v>
       </c>
       <c r="I18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="L18" s="6">
         <v>918135344</v>
@@ -3560,13 +2814,13 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="10" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="Q18" s="14" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="R18" s="15" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="S18" s="14">
         <f t="shared" si="0"/>
@@ -3577,33 +2831,34 @@
       <c r="V18" s="14"/>
       <c r="W18" s="14"/>
     </row>
-    <row r="19" ht="93.75" spans="1:23">
-      <c r="A19" s="4" t="s">
-        <v>165</v>
+    <row r="19" spans="1:23" ht="78.75">
+      <c r="A19" s="16">
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="L19" s="6">
         <v>933634400</v>
@@ -3612,13 +2867,13 @@
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="10" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="Q19" s="14" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="R19" s="15" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="S19" s="14">
         <f t="shared" si="0"/>
@@ -3629,21 +2884,22 @@
       <c r="V19" s="14"/>
       <c r="W19" s="14"/>
     </row>
-    <row r="20" ht="93.75" spans="1:23">
-      <c r="A20" s="4" t="s">
-        <v>173</v>
+    <row r="20" spans="1:23" ht="78.75">
+      <c r="A20" s="16">
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="F20" s="5">
         <v>9</v>
@@ -3655,28 +2911,28 @@
         <v>2004</v>
       </c>
       <c r="I20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="10" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="Q20" s="14" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="R20" s="15" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="S20" s="14">
         <f t="shared" si="0"/>
@@ -3687,21 +2943,22 @@
       <c r="V20" s="14"/>
       <c r="W20" s="14"/>
     </row>
-    <row r="21" ht="93.75" spans="1:23">
-      <c r="A21" s="4" t="s">
-        <v>181</v>
+    <row r="21" spans="1:23" ht="78.75">
+      <c r="A21" s="16">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="F21" s="5">
         <v>16</v>
@@ -3713,30 +2970,30 @@
         <v>2004</v>
       </c>
       <c r="I21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="K21" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="L21" s="6">
         <v>838794183</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="O21" s="6"/>
       <c r="P21" s="10" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="Q21" s="14" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="S21" s="14">
         <f t="shared" si="0"/>
@@ -3747,21 +3004,22 @@
       <c r="V21" s="14"/>
       <c r="W21" s="14"/>
     </row>
-    <row r="22" ht="78.25" spans="1:23">
-      <c r="A22" s="4" t="s">
-        <v>190</v>
+    <row r="22" spans="1:23" ht="78.75">
+      <c r="A22" s="16">
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="F22" s="5">
         <v>6</v>
@@ -3773,30 +3031,30 @@
         <v>2003</v>
       </c>
       <c r="I22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="L22" s="6">
         <v>373947017</v>
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="O22" s="6"/>
       <c r="P22" s="10" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="Q22" s="14" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="R22" s="15" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="S22" s="14">
         <f t="shared" si="0"/>
@@ -3807,21 +3065,22 @@
       <c r="V22" s="14"/>
       <c r="W22" s="14"/>
     </row>
-    <row r="23" ht="93.75" spans="1:23">
-      <c r="A23" s="4" t="s">
-        <v>200</v>
+    <row r="23" spans="1:23" ht="78.75">
+      <c r="A23" s="16">
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="F23" s="5">
         <v>17</v>
@@ -3833,13 +3092,13 @@
         <v>2004</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L23" s="6">
         <v>363365076</v>
@@ -3848,13 +3107,13 @@
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="14" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="R23" s="15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="S23" s="14">
         <f t="shared" si="0"/>
@@ -3865,21 +3124,22 @@
       <c r="V23" s="14"/>
       <c r="W23" s="14"/>
     </row>
-    <row r="24" ht="93.75" spans="1:23">
-      <c r="A24" s="4" t="s">
-        <v>207</v>
+    <row r="24" spans="1:23" ht="78.75">
+      <c r="A24" s="16">
+        <f t="shared" si="1"/>
+        <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="F24" s="5">
         <v>26</v>
@@ -3891,30 +3151,30 @@
         <v>2003</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L24" s="6">
         <v>964572559</v>
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="6" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="10" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="Q24" s="14" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="R24" s="15" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="S24" s="14">
         <f t="shared" si="0"/>
@@ -3925,21 +3185,22 @@
       <c r="V24" s="14"/>
       <c r="W24" s="14"/>
     </row>
-    <row r="25" ht="93.75" spans="1:23">
-      <c r="A25" s="4" t="s">
-        <v>214</v>
+    <row r="25" spans="1:23" ht="78.75">
+      <c r="A25" s="16">
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="F25" s="5">
         <v>26</v>
@@ -3951,30 +3212,30 @@
         <v>2004</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L25" s="6">
         <v>383254374</v>
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="O25" s="6"/>
       <c r="P25" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Q25" s="14" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="R25" s="15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="S25" s="14">
         <f t="shared" si="0"/>
@@ -3985,21 +3246,22 @@
       <c r="V25" s="14"/>
       <c r="W25" s="14"/>
     </row>
-    <row r="26" ht="93.75" spans="1:23">
-      <c r="A26" s="4" t="s">
-        <v>221</v>
+    <row r="26" spans="1:23" ht="78.75">
+      <c r="A26" s="16">
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="F26" s="5">
         <v>15</v>
@@ -4011,30 +3273,30 @@
         <v>2006</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L26" s="6">
         <v>344442207</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="O26" s="6"/>
       <c r="P26" s="10" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="14" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="R26" s="15" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="S26" s="14">
         <f t="shared" si="0"/>
@@ -4045,21 +3307,22 @@
       <c r="V26" s="14"/>
       <c r="W26" s="14"/>
     </row>
-    <row r="27" ht="78.25" spans="1:23">
-      <c r="A27" s="4" t="s">
-        <v>229</v>
+    <row r="27" spans="1:23" ht="78.75">
+      <c r="A27" s="16">
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="F27" s="5">
         <v>4</v>
@@ -4071,26 +3334,26 @@
         <v>2001</v>
       </c>
       <c r="I27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="K27" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="10" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="Q27" s="14" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="R27" s="15" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="S27" s="14">
         <f t="shared" si="0"/>
@@ -4101,21 +3364,22 @@
       <c r="V27" s="14"/>
       <c r="W27" s="14"/>
     </row>
-    <row r="28" ht="93.75" spans="1:23">
-      <c r="A28" s="4" t="s">
-        <v>235</v>
+    <row r="28" spans="1:23" ht="78.75">
+      <c r="A28" s="16">
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="F28" s="5">
         <v>1</v>
@@ -4127,30 +3391,30 @@
         <v>2007</v>
       </c>
       <c r="I28" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="K28" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="L28" s="6">
         <v>909073708</v>
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="O28" s="6"/>
       <c r="P28" s="10" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="Q28" s="14" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="R28" s="15" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="S28" s="14">
         <f t="shared" si="0"/>
@@ -4161,21 +3425,22 @@
       <c r="V28" s="14"/>
       <c r="W28" s="14"/>
     </row>
-    <row r="29" ht="78.25" spans="1:23">
-      <c r="A29" s="4" t="s">
-        <v>244</v>
+    <row r="29" spans="1:23" ht="78.75">
+      <c r="A29" s="16">
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="F29" s="5">
         <v>17</v>
@@ -4187,28 +3452,28 @@
         <v>2004</v>
       </c>
       <c r="I29" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="K29" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="O29" s="6"/>
       <c r="P29" s="10" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="Q29" s="14" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="R29" s="15" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="S29" s="14">
         <f t="shared" si="0"/>
@@ -4219,21 +3484,22 @@
       <c r="V29" s="14"/>
       <c r="W29" s="14"/>
     </row>
-    <row r="30" ht="93.75" spans="1:23">
-      <c r="A30" s="4" t="s">
-        <v>252</v>
+    <row r="30" spans="1:23" ht="78.75">
+      <c r="A30" s="16">
+        <f t="shared" si="1"/>
+        <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="F30" s="5">
         <v>29</v>
@@ -4245,28 +3511,28 @@
         <v>2004</v>
       </c>
       <c r="I30" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="K30" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="O30" s="6"/>
       <c r="P30" s="10" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="Q30" s="14" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="R30" s="15" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="S30" s="14">
         <f t="shared" si="0"/>
@@ -4277,21 +3543,22 @@
       <c r="V30" s="14"/>
       <c r="W30" s="14"/>
     </row>
-    <row r="31" ht="78.25" spans="1:23">
-      <c r="A31" s="4" t="s">
-        <v>260</v>
+    <row r="31" spans="1:23" ht="78.75">
+      <c r="A31" s="16">
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="F31" s="5">
         <v>22</v>
@@ -4303,30 +3570,30 @@
         <v>2004</v>
       </c>
       <c r="I31" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="K31" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="L31" s="6">
         <v>944058683</v>
       </c>
       <c r="M31" s="6"/>
       <c r="N31" s="6" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="O31" s="6"/>
       <c r="P31" s="10" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="Q31" s="14" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="R31" s="15" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="S31" s="14">
         <f t="shared" si="0"/>
@@ -4337,21 +3604,22 @@
       <c r="V31" s="14"/>
       <c r="W31" s="14"/>
     </row>
-    <row r="32" ht="93.75" spans="1:23">
-      <c r="A32" s="4" t="s">
-        <v>268</v>
+    <row r="32" spans="1:23" ht="78.75">
+      <c r="A32" s="16">
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="F32" s="5">
         <v>17</v>
@@ -4363,30 +3631,30 @@
         <v>2004</v>
       </c>
       <c r="I32" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="K32" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="L32" s="6">
         <v>349144954</v>
       </c>
       <c r="M32" s="6"/>
       <c r="N32" s="6" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="O32" s="6"/>
       <c r="P32" s="10" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="Q32" s="14" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="R32" s="15" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="S32" s="14">
         <f t="shared" si="0"/>
@@ -4397,18 +3665,19 @@
       <c r="V32" s="14"/>
       <c r="W32" s="14"/>
     </row>
-    <row r="33" ht="93.75" spans="1:23">
-      <c r="A33" s="4" t="s">
-        <v>276</v>
+    <row r="33" spans="1:23" ht="78.75">
+      <c r="A33" s="16">
+        <f t="shared" si="1"/>
+        <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="5">
@@ -4421,26 +3690,26 @@
         <v>2004</v>
       </c>
       <c r="I33" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="K33" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
       <c r="P33" s="10" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="Q33" s="14" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="R33" s="15" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="S33" s="14">
         <f t="shared" si="0"/>
@@ -4451,21 +3720,22 @@
       <c r="V33" s="14"/>
       <c r="W33" s="14"/>
     </row>
-    <row r="34" ht="93.75" spans="1:23">
-      <c r="A34" s="4" t="s">
-        <v>282</v>
+    <row r="34" spans="1:23" ht="78.75">
+      <c r="A34" s="16">
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="F34" s="5">
         <v>3</v>
@@ -4477,30 +3747,30 @@
         <v>2004</v>
       </c>
       <c r="I34" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="K34" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="L34" s="6">
         <v>376109041</v>
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="6" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="O34" s="6"/>
       <c r="P34" s="10" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="Q34" s="14" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="R34" s="15" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="S34" s="14">
         <f t="shared" si="0"/>
@@ -4511,21 +3781,22 @@
       <c r="V34" s="14"/>
       <c r="W34" s="14"/>
     </row>
-    <row r="35" ht="93.75" spans="1:23">
-      <c r="A35" s="4" t="s">
-        <v>289</v>
+    <row r="35" spans="1:23" ht="78.75">
+      <c r="A35" s="16">
+        <f t="shared" si="1"/>
+        <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="F35" s="5">
         <v>30</v>
@@ -4537,30 +3808,30 @@
         <v>2004</v>
       </c>
       <c r="I35" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="K35" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="L35" s="6">
         <v>989741311</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="6" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="O35" s="6"/>
       <c r="P35" s="10" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="Q35" s="14" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="R35" s="15" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="S35" s="14">
         <f t="shared" si="0"/>
@@ -4571,21 +3842,22 @@
       <c r="V35" s="14"/>
       <c r="W35" s="14"/>
     </row>
-    <row r="36" ht="78.25" spans="1:23">
-      <c r="A36" s="4" t="s">
-        <v>296</v>
+    <row r="36" spans="1:23" ht="78.75">
+      <c r="A36" s="16">
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="F36" s="5">
         <v>9</v>
@@ -4597,30 +3869,30 @@
         <v>2004</v>
       </c>
       <c r="I36" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="K36" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="L36" s="6">
         <v>965534737</v>
       </c>
       <c r="M36" s="6"/>
       <c r="N36" s="6" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="O36" s="6"/>
       <c r="P36" s="10" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="Q36" s="14" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="R36" s="15" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="S36" s="14">
         <f t="shared" si="0"/>
@@ -4631,21 +3903,22 @@
       <c r="V36" s="14"/>
       <c r="W36" s="14"/>
     </row>
-    <row r="37" ht="93.75" spans="1:23">
-      <c r="A37" s="4" t="s">
-        <v>306</v>
+    <row r="37" spans="1:23" ht="78.75">
+      <c r="A37" s="16">
+        <f t="shared" si="1"/>
+        <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="F37" s="5">
         <v>27</v>
@@ -4657,30 +3930,30 @@
         <v>2003</v>
       </c>
       <c r="I37" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="K37" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="L37" s="6">
         <v>976109554</v>
       </c>
       <c r="M37" s="6"/>
       <c r="N37" s="6" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="O37" s="6"/>
       <c r="P37" s="10" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="Q37" s="14" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="R37" s="15" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="S37" s="14">
         <f t="shared" si="0"/>
@@ -4691,21 +3964,22 @@
       <c r="V37" s="14"/>
       <c r="W37" s="14"/>
     </row>
-    <row r="38" ht="78.25" spans="1:23">
-      <c r="A38" s="4" t="s">
-        <v>315</v>
+    <row r="38" spans="1:23" ht="78.75">
+      <c r="A38" s="16">
+        <f t="shared" si="1"/>
+        <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>318</v>
+        <v>281</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="F38" s="5">
         <v>24</v>
@@ -4717,30 +3991,30 @@
         <v>2004</v>
       </c>
       <c r="I38" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="K38" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="L38" s="6">
         <v>706639505</v>
       </c>
       <c r="M38" s="6"/>
       <c r="N38" s="6" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="O38" s="6"/>
       <c r="P38" s="10" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="Q38" s="14" t="s">
-        <v>322</v>
+        <v>285</v>
       </c>
       <c r="R38" s="15" t="s">
-        <v>323</v>
+        <v>286</v>
       </c>
       <c r="S38" s="14">
         <f t="shared" si="0"/>
@@ -4751,21 +4025,22 @@
       <c r="V38" s="14"/>
       <c r="W38" s="14"/>
     </row>
-    <row r="39" ht="93.75" spans="1:23">
-      <c r="A39" s="4" t="s">
-        <v>324</v>
+    <row r="39" spans="1:23" ht="78.75">
+      <c r="A39" s="16">
+        <f t="shared" si="1"/>
+        <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>326</v>
+        <v>288</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="F39" s="5">
         <v>9</v>
@@ -4777,30 +4052,30 @@
         <v>2004</v>
       </c>
       <c r="I39" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K39" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="L39" s="6">
         <v>584186189</v>
       </c>
       <c r="M39" s="6"/>
       <c r="N39" s="6" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="O39" s="6"/>
       <c r="P39" s="10" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="Q39" s="14" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="R39" s="15" t="s">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c r="S39" s="14">
         <f t="shared" si="0"/>
@@ -4811,21 +4086,22 @@
       <c r="V39" s="14"/>
       <c r="W39" s="14"/>
     </row>
-    <row r="40" ht="93.75" spans="1:23">
-      <c r="A40" s="4" t="s">
-        <v>333</v>
+    <row r="40" spans="1:23" ht="78.75">
+      <c r="A40" s="16">
+        <f t="shared" si="1"/>
+        <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="F40" s="5">
         <v>17</v>
@@ -4837,30 +4113,30 @@
         <v>2001</v>
       </c>
       <c r="I40" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K40" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="L40" s="6">
         <v>937953287</v>
       </c>
       <c r="M40" s="6"/>
       <c r="N40" s="6" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="10" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="Q40" s="14" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="R40" s="15" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="S40" s="14">
         <f t="shared" si="0"/>
@@ -4871,21 +4147,22 @@
       <c r="V40" s="14"/>
       <c r="W40" s="14"/>
     </row>
-    <row r="41" ht="93.75" spans="1:23">
-      <c r="A41" s="4" t="s">
-        <v>342</v>
+    <row r="41" spans="1:23" ht="78.75">
+      <c r="A41" s="16">
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="F41" s="5">
         <v>12</v>
@@ -4897,13 +4174,13 @@
         <v>2004</v>
       </c>
       <c r="I41" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="K41" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="L41" s="6">
         <v>384138176</v>
@@ -4912,13 +4189,13 @@
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
       <c r="P41" s="10" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="Q41" s="14" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="R41" s="15" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="S41" s="14">
         <f t="shared" si="0"/>
@@ -4929,21 +4206,22 @@
       <c r="V41" s="14"/>
       <c r="W41" s="14"/>
     </row>
-    <row r="42" ht="93.75" spans="1:23">
-      <c r="A42" s="4" t="s">
-        <v>348</v>
+    <row r="42" spans="1:23" ht="78.75">
+      <c r="A42" s="16">
+        <f t="shared" si="1"/>
+        <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>352</v>
+        <v>311</v>
       </c>
       <c r="F42" s="5">
         <v>14</v>
@@ -4955,30 +4233,30 @@
         <v>2004</v>
       </c>
       <c r="I42" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="K42" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="L42" s="6">
         <v>374821656</v>
       </c>
       <c r="M42" s="6"/>
       <c r="N42" s="6" t="s">
-        <v>353</v>
+        <v>312</v>
       </c>
       <c r="O42" s="6"/>
       <c r="P42" s="10" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="Q42" s="14" t="s">
-        <v>354</v>
+        <v>313</v>
       </c>
       <c r="R42" s="15" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="S42" s="14">
         <f t="shared" si="0"/>
@@ -4989,718 +4267,732 @@
       <c r="V42" s="14"/>
       <c r="W42" s="14"/>
     </row>
-    <row r="43" ht="120" customHeight="1" spans="1:19">
-      <c r="A43" s="4" t="s">
-        <v>355</v>
+    <row r="43" spans="1:23" ht="120" customHeight="1">
+      <c r="A43" s="16">
+        <f t="shared" si="1"/>
+        <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>356</v>
+        <v>314</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>358</v>
+        <v>316</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>359</v>
+        <v>317</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="13" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="L43" s="8">
         <v>937817366</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>362</v>
+        <v>320</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="P43" s="10" t="s">
-        <v>364</v>
+        <v>322</v>
       </c>
       <c r="Q43" s="14" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="R43" s="15" t="s">
-        <v>366</v>
+        <v>324</v>
       </c>
       <c r="S43" s="14">
         <f t="shared" si="0"/>
         <v>305</v>
       </c>
     </row>
-    <row r="44" ht="93.75" spans="1:19">
-      <c r="A44" s="4" t="s">
-        <v>367</v>
+    <row r="44" spans="1:23" ht="78.75">
+      <c r="A44" s="16">
+        <f t="shared" si="1"/>
+        <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>370</v>
+        <v>327</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>371</v>
+        <v>328</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="13" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="L44" s="8">
         <v>824596503</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="Q44" s="14" t="s">
-        <v>372</v>
+        <v>329</v>
       </c>
       <c r="R44" s="15" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
       <c r="S44" s="14">
         <f t="shared" si="0"/>
         <v>304</v>
       </c>
     </row>
-    <row r="45" ht="93.75" spans="1:19">
-      <c r="A45" s="4" t="s">
-        <v>374</v>
+    <row r="45" spans="1:23" ht="78.75">
+      <c r="A45" s="16">
+        <f t="shared" si="1"/>
+        <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>375</v>
+        <v>331</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="13" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>379</v>
+        <v>335</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="L45" s="8">
         <v>906793059</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="O45" s="8" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="P45" s="10" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="Q45" s="14" t="s">
-        <v>380</v>
+        <v>336</v>
       </c>
       <c r="R45" s="15" t="s">
-        <v>381</v>
+        <v>337</v>
       </c>
       <c r="S45" s="14">
         <f t="shared" si="0"/>
         <v>304</v>
       </c>
     </row>
-    <row r="46" ht="93.75" spans="1:19">
-      <c r="A46" s="4" t="s">
-        <v>382</v>
+    <row r="46" spans="1:23" ht="78.75">
+      <c r="A46" s="16">
+        <f t="shared" si="1"/>
+        <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>383</v>
+        <v>338</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>385</v>
+        <v>340</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>386</v>
+        <v>341</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="13" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>379</v>
+        <v>335</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="L46" s="8">
         <v>837862900</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="P46" s="10" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="Q46" s="14" t="s">
-        <v>387</v>
+        <v>342</v>
       </c>
       <c r="R46" s="15" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="S46" s="14">
         <f t="shared" si="0"/>
         <v>306</v>
       </c>
     </row>
-    <row r="47" ht="93.75" spans="1:19">
-      <c r="A47" s="4" t="s">
-        <v>389</v>
+    <row r="47" spans="1:23" ht="78.75">
+      <c r="A47" s="16">
+        <f t="shared" si="1"/>
+        <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>390</v>
+        <v>344</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>391</v>
+        <v>345</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>386</v>
+        <v>341</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="13" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="L47" s="8">
         <v>797907514</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>394</v>
+        <v>348</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="P47" s="10" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
       <c r="Q47" s="14" t="s">
-        <v>396</v>
+        <v>350</v>
       </c>
       <c r="R47" s="15" t="s">
-        <v>397</v>
+        <v>351</v>
       </c>
       <c r="S47" s="14">
         <f t="shared" si="0"/>
         <v>306</v>
       </c>
     </row>
-    <row r="48" ht="93.75" spans="1:19">
-      <c r="A48" s="4" t="s">
-        <v>398</v>
+    <row r="48" spans="1:23" ht="78.75">
+      <c r="A48" s="16">
+        <f t="shared" si="1"/>
+        <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>401</v>
+        <v>354</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="13" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="L48" s="8">
         <v>777828237</v>
       </c>
       <c r="M48" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="O48" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="P48" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q48" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="R48" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="S48" s="14">
+        <f t="shared" si="0"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="78.75">
+      <c r="A49" s="16">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="N48" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="O48" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="P48" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q48" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="R48" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="S48" s="14">
-        <f t="shared" si="0"/>
-        <v>304</v>
-      </c>
-    </row>
-    <row r="49" ht="93.75" spans="1:19">
-      <c r="A49" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>409</v>
-      </c>
       <c r="E49" s="8" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="13" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="L49" s="8">
         <v>947064738</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>412</v>
+        <v>364</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="P49" s="10" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="Q49" s="14" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="R49" s="15" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="S49" s="14">
         <f t="shared" si="0"/>
         <v>305</v>
       </c>
     </row>
-    <row r="50" ht="93.75" spans="1:19">
-      <c r="A50" s="4" t="s">
-        <v>415</v>
+    <row r="50" spans="1:19" ht="78.75">
+      <c r="A50" s="16">
+        <f t="shared" si="1"/>
+        <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>416</v>
+        <v>367</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>417</v>
+        <v>368</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>418</v>
+        <v>369</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>419</v>
+        <v>370</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="13" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="L50" s="8">
         <v>909351419</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="P50" s="10" t="s">
-        <v>420</v>
+        <v>371</v>
       </c>
       <c r="Q50" s="14" t="s">
-        <v>421</v>
+        <v>372</v>
       </c>
       <c r="R50" s="15" t="s">
-        <v>422</v>
+        <v>373</v>
       </c>
       <c r="S50" s="14">
         <f t="shared" si="0"/>
         <v>305</v>
       </c>
     </row>
-    <row r="51" ht="93.75" spans="1:19">
-      <c r="A51" s="4" t="s">
-        <v>423</v>
+    <row r="51" spans="1:19" ht="78.75">
+      <c r="A51" s="16">
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>424</v>
+        <v>374</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>425</v>
+        <v>375</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>426</v>
+        <v>376</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>427</v>
+        <v>377</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="13" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="L51" s="8">
         <v>773891468</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="P51" s="10" t="s">
-        <v>428</v>
+        <v>378</v>
       </c>
       <c r="Q51" s="14" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="R51" s="15" t="s">
-        <v>429</v>
+        <v>379</v>
       </c>
       <c r="S51" s="14">
         <f t="shared" si="0"/>
         <v>304</v>
       </c>
     </row>
-    <row r="52" ht="93.75" spans="1:19">
-      <c r="A52" s="4" t="s">
-        <v>430</v>
+    <row r="52" spans="1:19" ht="78.75">
+      <c r="A52" s="16">
+        <f t="shared" si="1"/>
+        <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>431</v>
+        <v>380</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>432</v>
+        <v>381</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>433</v>
+        <v>382</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>434</v>
+        <v>383</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="13" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>435</v>
+        <v>384</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="L52" s="8">
         <v>896611461</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>436</v>
+        <v>385</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="P52" s="10" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="Q52" s="14" t="s">
-        <v>437</v>
+        <v>386</v>
       </c>
       <c r="R52" s="15" t="s">
-        <v>438</v>
+        <v>387</v>
       </c>
       <c r="S52" s="14">
         <f t="shared" si="0"/>
         <v>304</v>
       </c>
     </row>
-    <row r="53" ht="93.75" spans="1:19">
-      <c r="A53" s="4" t="s">
-        <v>439</v>
+    <row r="53" spans="1:19" ht="78.75">
+      <c r="A53" s="16">
+        <f t="shared" si="1"/>
+        <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>443</v>
+        <v>391</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="13" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>444</v>
+        <v>392</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="L53" s="8">
         <v>906929106</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="O53" s="8" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="P53" s="10" t="s">
-        <v>445</v>
+        <v>393</v>
       </c>
       <c r="Q53" s="14" t="s">
-        <v>446</v>
+        <v>394</v>
       </c>
       <c r="R53" s="15" t="s">
-        <v>447</v>
+        <v>395</v>
       </c>
       <c r="S53" s="14">
         <f t="shared" si="0"/>
         <v>305</v>
       </c>
     </row>
-    <row r="54" ht="93.75" spans="1:19">
-      <c r="A54" s="4" t="s">
-        <v>448</v>
+    <row r="54" spans="1:19" ht="78.75">
+      <c r="A54" s="16">
+        <f t="shared" si="1"/>
+        <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>449</v>
+        <v>396</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>451</v>
+        <v>398</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>452</v>
+        <v>399</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="13" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>444</v>
+        <v>392</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="L54" s="8"/>
       <c r="M54" s="8" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="O54" s="8" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="P54" s="10" t="s">
-        <v>453</v>
+        <v>400</v>
       </c>
       <c r="Q54" s="14" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="R54" s="15" t="s">
-        <v>454</v>
+        <v>401</v>
       </c>
       <c r="S54" s="14">
         <f t="shared" si="0"/>
         <v>303</v>
       </c>
     </row>
-    <row r="55" ht="78.25" spans="1:19">
-      <c r="A55" s="4" t="s">
-        <v>455</v>
+    <row r="55" spans="1:19" ht="78.75">
+      <c r="A55" s="16">
+        <f t="shared" si="1"/>
+        <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>456</v>
+        <v>402</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8" t="s">
-        <v>457</v>
+        <v>403</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="13" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K55" s="8"/>
       <c r="L55" s="8">
         <v>369406402</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>458</v>
+        <v>404</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>459</v>
+        <v>405</v>
       </c>
       <c r="O55" s="8"/>
       <c r="P55" s="10" t="s">
-        <v>460</v>
+        <v>406</v>
       </c>
       <c r="Q55" s="14" t="s">
-        <v>461</v>
+        <v>407</v>
       </c>
       <c r="R55" s="15" t="s">
-        <v>462</v>
+        <v>408</v>
       </c>
       <c r="S55" s="14">
         <f t="shared" si="0"/>
         <v>284</v>
       </c>
     </row>
-    <row r="56" ht="93.75" spans="1:19">
-      <c r="A56" s="4" t="s">
-        <v>463</v>
+    <row r="56" spans="1:19" ht="78.75">
+      <c r="A56" s="16">
+        <f t="shared" si="1"/>
+        <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>464</v>
+        <v>409</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8" t="s">
-        <v>465</v>
+        <v>410</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="13" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>466</v>
+        <v>411</v>
       </c>
       <c r="K56" s="8"/>
       <c r="L56" s="8">
@@ -5708,19 +5000,19 @@
       </c>
       <c r="M56" s="8"/>
       <c r="N56" s="8" t="s">
-        <v>467</v>
+        <v>412</v>
       </c>
       <c r="O56" s="8" t="s">
-        <v>468</v>
+        <v>413</v>
       </c>
       <c r="P56" s="10" t="s">
-        <v>469</v>
+        <v>414</v>
       </c>
       <c r="Q56" s="14" t="s">
-        <v>470</v>
+        <v>415</v>
       </c>
       <c r="R56" s="15" t="s">
-        <v>471</v>
+        <v>416</v>
       </c>
       <c r="S56" s="14">
         <f t="shared" si="0"/>
@@ -5728,14 +5020,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W56">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:W56" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="M55" r:id="rId1" display="lamgiabao73@gmail.com"/>
+    <hyperlink ref="M55" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>